--- a/Daily_Tracker.xlsx
+++ b/Daily_Tracker.xlsx
@@ -1,43 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vaibhav suryawanshi\Desktop\Cypress_Task\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A60640-6B02-48D3-827A-2D3A88C80231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="TestResults" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>Test Case Title</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>01_verify_Adding_single_item_to_cart</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>02_verify_removing_item_from_the_cart</t>
-  </si>
-  <si>
-    <t>03_verify_updating_of_cart_after_adding_multiple_item</t>
+    <t>16-05-2025</t>
+  </si>
+  <si>
+    <t>17-05-2025</t>
+  </si>
+  <si>
+    <t>11_failed</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>07_verify_Adding_single_item_to_cart</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>08_verify_removing_item_from_the_cart</t>
+  </si>
+  <si>
+    <t>09_verify_updating_of_cart_after_adding_multiple_item</t>
   </si>
   <si>
     <t>01_Verify_Valid_Login</t>
@@ -49,34 +52,77 @@
     <t>03_Verify_Lockout_user_failed_login</t>
   </si>
   <si>
-    <t>01_verify_complete_successful_purchase_of_single_item</t>
-  </si>
-  <si>
-    <t>02_verify_checkout_with_missing_firstname_fails.cy.js</t>
-  </si>
-  <si>
-    <t>03_verify_user_can_cancel_checkout_and redirected_to_cart.cy.js</t>
+    <t>04_verify_complete_successful_purchase_of_single_item</t>
+  </si>
+  <si>
+    <t>05_verify_checkout_with_missing_firstname_fails.cy.js</t>
+  </si>
+  <si>
+    <t>06_verify_user_can_cancel_checkout_and redirected_to_cart.cy.js</t>
+  </si>
+  <si>
+    <t>10_verify_complete_successful_purchase_of_single_item</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="9C0006"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="006100"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -91,14 +137,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -431,110 +481,152 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="74.19921875" customWidth="1"/>
+    <col min="1" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="A1:B11" numberStoredAsText="1"/>
-  </ignoredErrors>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/Daily_Tracker.xlsx
+++ b/Daily_Tracker.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387A589E-6888-4FED-9D41-3B6B81D2F6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="TestResults" state="visible" r:id="rId4"/>
+    <sheet name="TestResults" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -67,34 +68,38 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <color rgb="9C0006"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <color rgb="006100"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="6">
@@ -111,7 +116,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -121,7 +126,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -481,16 +486,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="20" customWidth="1"/>
+    <col min="1" max="1" width="58.5546875" customWidth="1"/>
+    <col min="2" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -627,6 +633,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/Daily_Tracker.xlsx
+++ b/Daily_Tracker.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387A589E-6888-4FED-9D41-3B6B81D2F6A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
-    <sheet name="TestResults" sheetId="1" r:id="rId1"/>
+    <sheet sheetId="1" name="TestResults" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="Summary" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
   <si>
     <t>Test Case Title</t>
   </si>
@@ -63,43 +63,57 @@
   </si>
   <si>
     <t>10_verify_complete_successful_purchase_of_single_item</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>% Passed</t>
+  </si>
+  <si>
+    <t>91%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <color rgb="9C0006"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF006100"/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <color rgb="006100"/>
     </font>
   </fonts>
   <fills count="6">
@@ -116,7 +130,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -126,7 +140,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -486,14 +500,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="58.5546875" customWidth="1"/>
     <col min="2" max="3" width="20" customWidth="1"/>
@@ -633,6 +647,68 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
--- a/Daily_Tracker.xlsx
+++ b/Daily_Tracker.xlsx
@@ -10,12 +10,15 @@
     <sheet sheetId="1" name="TestResults" state="visible" r:id="rId4"/>
     <sheet sheetId="2" name="Summary" state="visible" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase">TestResults!$A$1:$C$1</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="23">
   <si>
     <t>Test Case Title</t>
   </si>
@@ -26,43 +29,46 @@
     <t>17-05-2025</t>
   </si>
   <si>
+    <t>19-05-2025</t>
+  </si>
+  <si>
+    <t>01_Verify_Valid_Login</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>02_Verify_Invalid_Login_by_wrong_password</t>
+  </si>
+  <si>
+    <t>03_Verify_Lockout_user_failed_login</t>
+  </si>
+  <si>
+    <t>04_verify_complete_successful_purchase_of_single_item</t>
+  </si>
+  <si>
+    <t>05_verify_checkout_with_missing_firstname_fails.cy.js</t>
+  </si>
+  <si>
+    <t>06_verify_user_can_cancel_checkout_and redirected_to_cart.cy.js</t>
+  </si>
+  <si>
+    <t>07_verify_Adding_single_item_to_cart</t>
+  </si>
+  <si>
+    <t>08_verify_removing_item_from_the_cart</t>
+  </si>
+  <si>
+    <t>09_verify_updating_of_cart_after_adding_multiple_item</t>
+  </si>
+  <si>
+    <t>10_verify_complete_successful_purchase_of_single_item</t>
+  </si>
+  <si>
     <t>11_failed</t>
   </si>
   <si>
     <t>F</t>
-  </si>
-  <si>
-    <t>07_verify_Adding_single_item_to_cart</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>08_verify_removing_item_from_the_cart</t>
-  </si>
-  <si>
-    <t>09_verify_updating_of_cart_after_adding_multiple_item</t>
-  </si>
-  <si>
-    <t>01_Verify_Valid_Login</t>
-  </si>
-  <si>
-    <t>02_Verify_Invalid_Login_by_wrong_password</t>
-  </si>
-  <si>
-    <t>03_Verify_Lockout_user_failed_login</t>
-  </si>
-  <si>
-    <t>04_verify_complete_successful_purchase_of_single_item</t>
-  </si>
-  <si>
-    <t>05_verify_checkout_with_missing_firstname_fails.cy.js</t>
-  </si>
-  <si>
-    <t>06_verify_user_can_cancel_checkout_and redirected_to_cart.cy.js</t>
-  </si>
-  <si>
-    <t>10_verify_complete_successful_purchase_of_single_item</t>
   </si>
   <si>
     <t>Date</t>
@@ -97,6 +103,16 @@
     </font>
     <font>
       <b/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="006100"/>
+    </font>
+    <font>
+      <b/>
       <color rgb="FF9C0006"/>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -104,16 +120,6 @@
     <font>
       <b/>
       <color rgb="9C0006"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <color rgb="006100"/>
     </font>
   </fonts>
   <fills count="6">
@@ -125,22 +131,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -156,8 +162,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -501,19 +508,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="58.5546875" customWidth="1"/>
-    <col min="2" max="3" width="20" customWidth="1"/>
+    <col min="2" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -523,129 +530,202 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1">
+        <v>45795</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>6</v>
+      <c r="B12" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
@@ -653,24 +733,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -687,7 +772,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -704,11 +789,28 @@
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/Daily_Tracker.xlsx
+++ b/Daily_Tracker.xlsx
@@ -1,16 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31D470F-0659-406C-863E-6D3955935E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="TestResults" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Summary" state="visible" r:id="rId5"/>
+    <sheet name="TestResults" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TestResults!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase">TestResults!$A$1:$C$1</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
@@ -92,34 +94,38 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
       <color rgb="FF006100"/>
-      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <color rgb="006100"/>
-    </font>
-    <font>
-      <b/>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <sz val="11"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <color rgb="9C0006"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="6">
@@ -136,7 +142,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="C6EFCE"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
@@ -146,7 +152,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC7CE"/>
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -507,14 +513,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="58.5546875" customWidth="1"/>
     <col min="2" max="5" width="20" customWidth="1"/>
@@ -537,7 +544,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -554,7 +561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -725,21 +732,21 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1"/>
+  <autoFilter ref="A1:E1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.3" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -811,6 +818,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
--- a/Daily_Tracker.xlsx
+++ b/Daily_Tracker.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31D470F-0659-406C-863E-6D3955935E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CE3EA5-5EA6-4D96-8B1E-9C8B242F907B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestResults" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="23">
   <si>
     <t>Test Case Title</t>
   </si>
@@ -95,7 +95,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +126,12 @@
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -168,13 +174,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,20 +523,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:AD12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C18" sqref="C18"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC1" sqref="AC1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="58.5546875" customWidth="1"/>
     <col min="2" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" customWidth="1"/>
+    <col min="8" max="18" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5546875" customWidth="1"/>
+    <col min="20" max="29" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -543,8 +557,81 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="1">
+        <v>45797</v>
+      </c>
+      <c r="G1" s="1">
+        <v>45798</v>
+      </c>
+      <c r="H1" s="6">
+        <v>45799</v>
+      </c>
+      <c r="I1" s="1">
+        <v>45800</v>
+      </c>
+      <c r="J1" s="1">
+        <v>45801</v>
+      </c>
+      <c r="K1" s="1">
+        <v>45802</v>
+      </c>
+      <c r="L1" s="1">
+        <v>45803</v>
+      </c>
+      <c r="M1" s="1">
+        <v>45804</v>
+      </c>
+      <c r="N1" s="1">
+        <v>45805</v>
+      </c>
+      <c r="O1" s="1">
+        <v>45806</v>
+      </c>
+      <c r="P1" s="1">
+        <v>45807</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>45808</v>
+      </c>
+      <c r="R1" s="1">
+        <v>45809</v>
+      </c>
+      <c r="S1" s="1">
+        <v>45809</v>
+      </c>
+      <c r="T1" s="1">
+        <v>45810</v>
+      </c>
+      <c r="U1" s="1">
+        <v>45811</v>
+      </c>
+      <c r="V1" s="1">
+        <v>45812</v>
+      </c>
+      <c r="W1" s="1">
+        <v>45813</v>
+      </c>
+      <c r="X1" s="1">
+        <v>45814</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>45815</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>45816</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>45817</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>45818</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>45819</v>
+      </c>
+      <c r="AD1" s="1"/>
+    </row>
+    <row r="2" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -560,8 +647,80 @@
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -577,8 +736,80 @@
       <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -594,8 +825,80 @@
       <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -611,8 +914,80 @@
       <c r="E5" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -628,8 +1003,80 @@
       <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -645,8 +1092,80 @@
       <c r="E7" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -662,8 +1181,80 @@
       <c r="E8" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -679,8 +1270,80 @@
       <c r="E9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -696,8 +1359,80 @@
       <c r="E10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -713,8 +1448,80 @@
       <c r="E11" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -728,6 +1535,78 @@
         <v>16</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="T12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC12" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -740,13 +1619,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -800,8 +1682,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1">
+        <v>45795</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -816,7 +1698,416 @@
         <v>22</v>
       </c>
     </row>
+    <row r="5" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45796</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45797</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45798</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45799</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45800</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45801</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45802</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45803</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>45804</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>45805</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>45806</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>45807</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>45808</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>45809</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>45810</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>45811</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>45812</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>45813</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>45814</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>45815</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>45816</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>45817</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>45818</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>45819</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
